--- a/Resources/Random Forest Analysis-final.xlsx
+++ b/Resources/Random Forest Analysis-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communsol-my.sharepoint.com/personal/judith_calvo_communitysolutions_org/Documents/_aUCB Data Analytics Bootcamp Class/Final Project Folder/ML/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{B2E74B40-5D98-41C8-BCDD-914FA1A8BB00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E6C79079-15F4-48E0-BD6A-73FFD416ECAC}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{B2E74B40-5D98-41C8-BCDD-914FA1A8BB00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3D77DC2E-0DE6-49B9-97A4-4DD1D0A11172}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8A4224A1-CC55-4A8E-8132-71ABCE4FE425}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A4224A1-CC55-4A8E-8132-71ABCE4FE425}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification Metrics" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>Actual Not Discharged Successfully</t>
   </si>
@@ -199,9 +199,6 @@
     <t xml:space="preserve"> Adjustment disorder  unspecified</t>
   </si>
   <si>
-    <t xml:space="preserve"> race_value_AfAmer</t>
-  </si>
-  <si>
     <t xml:space="preserve"> race_value_Asian</t>
   </si>
   <si>
@@ -275,6 +272,12 @@
   </si>
   <si>
     <t>Predicted Not Successful</t>
+  </si>
+  <si>
+    <t>African American</t>
+  </si>
+  <si>
+    <t>Outcome</t>
   </si>
 </sst>
 </file>
@@ -282,21 +285,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -329,13 +326,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -390,43 +380,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -437,6 +412,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,7 +741,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -765,22 +751,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -789,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <f>SUM(B3:C3)</f>
@@ -804,10 +790,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D4">
         <f>SUM(B4:C4)</f>
@@ -820,11 +806,11 @@
       </c>
       <c r="B5" s="2">
         <f>SUM(B3:B4)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <f>SUM(C3:C4)</f>
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D5">
         <f>SUM(D3:D4)</f>
@@ -847,338 +833,335 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.47</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E12" s="20">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="19">
         <v>0.67</v>
       </c>
-      <c r="D12">
-        <v>0.46</v>
-      </c>
-      <c r="E12">
-        <v>0.54</v>
-      </c>
-      <c r="F12">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="C13" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="20">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="E15" s="20">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="C16" s="19">
         <v>0.66</v>
       </c>
-      <c r="D13">
-        <v>0.83</v>
-      </c>
-      <c r="E13">
-        <v>0.73</v>
-      </c>
-      <c r="F13">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>0.66</v>
-      </c>
-      <c r="F15">
+      <c r="D16" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="E16" s="20">
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>0.67</v>
-      </c>
-      <c r="D16">
-        <v>0.64</v>
-      </c>
-      <c r="E16">
-        <v>0.67</v>
-      </c>
-      <c r="F16">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="E17" s="20">
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>0.67</v>
-      </c>
-      <c r="D17">
-        <v>0.66</v>
-      </c>
-      <c r="E17">
-        <v>0.68</v>
-      </c>
-      <c r="F17">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="10">
+        <v>69</v>
+      </c>
+      <c r="B22" s="9">
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="7">
-        <v>2.9666395658491301E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+        <v>2.9381294059245101E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2.6328995331523702E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="7">
-        <v>2.73820360050555E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="B30" s="7">
-        <v>2.72832615420113E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+        <v>2.62416686165752E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2.6014668651097299E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="7">
-        <v>2.5822458409661599E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="7">
+        <v>2.52069776298596E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="7">
-        <v>2.5607355766117199E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="7">
+        <v>2.4931581645804599E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="7">
-        <v>2.5587762748340001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="7">
+        <v>2.49155995347317E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2.4605034104729799E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2.4132898798080699E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="7">
-        <v>2.55842412946789E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="7">
-        <v>2.5416076266004301E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="B37" s="7">
+        <v>2.41135043122577E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.3581392603250002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2.35600907228781E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2.2733270666944298E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="7">
-        <v>2.5284931909122201E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="7">
-        <v>2.5167405487120199E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="7">
-        <v>2.4346600060231399E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="7">
-        <v>2.4246896560606801E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="7">
-        <v>2.3762027055435099E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="B41" s="7">
-        <v>2.3752180819152501E-2</v>
+        <v>2.2584903373536299E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="7">
-        <v>2.2096504521486499E-2</v>
+        <v>2.2172847678090201E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="7">
-        <v>2.12560952301694E-2</v>
+        <v>2.16286817838033E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="7">
-        <v>2.10647563314817E-2</v>
+        <v>2.1220372068789399E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="7">
-        <v>2.0329139502519099E-2</v>
+        <v>1.967064630119E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="7">
-        <v>1.8107100760609601E-2</v>
+        <v>1.80190512583186E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="7">
-        <v>1.4905636880047E-2</v>
+        <v>1.4704037763972101E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1187,7 +1170,7 @@
     </row>
     <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>18</v>
@@ -1195,7 +1178,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="7">
         <v>1.44038855876966E-2</v>
@@ -1203,7 +1186,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="7">
         <v>1.31203528463183E-2</v>
@@ -1219,7 +1202,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="7">
         <v>1.17307395024855E-2</v>
@@ -1227,7 +1210,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="7">
         <v>1.04292116966384E-2</v>
@@ -1243,7 +1226,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="7">
         <v>9.4141685307284392E-3</v>
@@ -1251,7 +1234,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="7">
         <v>9.1553525190548497E-3</v>
@@ -1259,7 +1242,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="7">
         <v>8.7236363887983701E-3</v>
@@ -1267,7 +1250,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="7">
         <v>8.3212134793934096E-3</v>
@@ -1275,22 +1258,22 @@
     </row>
     <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" s="7">
         <v>8.1311591025672401E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="19" t="s">
-        <v>72</v>
+      <c r="A61" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="B61" s="7">
         <v>8.1007619167072602E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B62" s="7">
@@ -1298,23 +1281,23 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="18" t="s">
-        <v>71</v>
+      <c r="A63" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="B63" s="7">
         <v>6.9709055677920099E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="18" t="s">
-        <v>60</v>
+      <c r="A64" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="B64" s="7">
         <v>6.4058788364157997E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B65" s="7">
@@ -1322,7 +1305,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B66" s="7">
@@ -1330,7 +1313,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B67" s="7">
@@ -1338,7 +1321,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B68" s="7">
@@ -1346,79 +1329,79 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B69" s="7">
         <v>4.6000849672973698E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="18" t="s">
-        <v>61</v>
+    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B70" s="7">
         <v>4.3114958442694896E-3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="19" t="s">
-        <v>55</v>
+      <c r="A71" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="B71" s="7">
         <v>4.1592525600928501E-3</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="18" t="s">
-        <v>62</v>
+      <c r="A72" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="B72" s="7">
         <v>3.9625525274641499E-3</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="18" t="s">
-        <v>63</v>
+      <c r="A73" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B73" s="7">
         <v>3.9227943856913498E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="18" t="s">
-        <v>64</v>
+    <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B74" s="7">
         <v>3.8032748046017799E-3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="19" t="s">
-        <v>56</v>
+      <c r="A75" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="B75" s="7">
         <v>3.41899092846686E-3</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="18" t="s">
-        <v>65</v>
+      <c r="A76" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B76" s="7">
         <v>3.39656892411268E-3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="19" t="s">
-        <v>66</v>
+      <c r="A77" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="B77" s="7">
         <v>2.81528416708581E-3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B78" s="7">
@@ -1484,21 +1467,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B03C3E295CF76648AC85B6EC26361ECA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0bb9dd14d241c245318bb8942e244b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b42430d8-c205-408e-a6b2-f7bcf1ddda46" xmlns:ns4="076ed714-3a77-4f17-8bbf-04471c3fc2e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d56a7a2c73efd02ab063fa24f087166" ns3:_="" ns4:_="">
     <xsd:import namespace="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
@@ -1721,32 +1689,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FB5970-FED5-40C8-AA2E-DA5923CD693C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC7EADE-C10B-47E7-8CF9-C6F7975E8804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
-    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3C80D87-A783-4212-876E-82900FFF8A9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1763,4 +1721,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC7EADE-C10B-47E7-8CF9-C6F7975E8804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FB5970-FED5-40C8-AA2E-DA5923CD693C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Resources/Random Forest Analysis-final.xlsx
+++ b/Resources/Random Forest Analysis-final.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="154" documentId="8_{B2E74B40-5D98-41C8-BCDD-914FA1A8BB00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3D77DC2E-0DE6-49B9-97A4-4DD1D0A11172}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A4224A1-CC55-4A8E-8132-71ABCE4FE425}"/>
+    <workbookView xWindow="24864" yWindow="1824" windowWidth="17280" windowHeight="8916" xr2:uid="{8A4224A1-CC55-4A8E-8132-71ABCE4FE425}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification Metrics" sheetId="3" r:id="rId1"/>
@@ -413,16 +413,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21D34D5-1A7B-4765-BEDF-18BADC340302}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -751,12 +751,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
@@ -833,14 +833,14 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
@@ -863,16 +863,16 @@
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <v>0.72</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>0.47</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>136</v>
       </c>
     </row>
@@ -880,36 +880,36 @@
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>0.67</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>0.86</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>0.75</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17">
         <v>0.69</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>310</v>
       </c>
     </row>
@@ -917,16 +917,16 @@
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>0.7</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>0.66</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>0.67</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>310</v>
       </c>
     </row>
@@ -934,24 +934,24 @@
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>0.69</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>0.69</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>0.68</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="20"/>
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
@@ -1467,6 +1467,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B03C3E295CF76648AC85B6EC26361ECA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0bb9dd14d241c245318bb8942e244b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b42430d8-c205-408e-a6b2-f7bcf1ddda46" xmlns:ns4="076ed714-3a77-4f17-8bbf-04471c3fc2e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d56a7a2c73efd02ab063fa24f087166" ns3:_="" ns4:_="">
     <xsd:import namespace="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
@@ -1689,22 +1704,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FB5970-FED5-40C8-AA2E-DA5923CD693C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC7EADE-C10B-47E7-8CF9-C6F7975E8804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
+    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3C80D87-A783-4212-876E-82900FFF8A9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1721,29 +1746,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC7EADE-C10B-47E7-8CF9-C6F7975E8804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0FB5970-FED5-40C8-AA2E-DA5923CD693C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Resources/Random Forest Analysis-final.xlsx
+++ b/Resources/Random Forest Analysis-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communsol-my.sharepoint.com/personal/judith_calvo_communitysolutions_org/Documents/_aUCB Data Analytics Bootcamp Class/Final Project Folder/ML/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{B2E74B40-5D98-41C8-BCDD-914FA1A8BB00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3D77DC2E-0DE6-49B9-97A4-4DD1D0A11172}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{B2E74B40-5D98-41C8-BCDD-914FA1A8BB00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5D436C05-0B8B-461E-BAFA-36F46904CAFE}"/>
   <bookViews>
-    <workbookView xWindow="24864" yWindow="1824" windowWidth="17280" windowHeight="8916" xr2:uid="{8A4224A1-CC55-4A8E-8132-71ABCE4FE425}"/>
+    <workbookView xWindow="580" yWindow="980" windowWidth="17280" windowHeight="8920" xr2:uid="{8A4224A1-CC55-4A8E-8132-71ABCE4FE425}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification Metrics" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Actual Not Discharged Successfully</t>
   </si>
@@ -118,12 +118,6 @@
     <t>X = X.drop(['y','patient_sex_code_M','ethnic_origin_value_Not Hispanic','ethnic_origin_value_Unk','diagnosis_value_Major depressive disorder  recurrent episode  moderate'], axis=1)</t>
   </si>
   <si>
-    <t>Accuracy Score : 0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cans_ys_family</t>
-  </si>
-  <si>
     <t xml:space="preserve"> cans_ys_spirit</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>Features with little to no weight in prediction of classification</t>
   </si>
   <si>
-    <t>Features deemed to have some importance</t>
-  </si>
-  <si>
     <t>Length of stay in Days</t>
   </si>
   <si>
@@ -278,6 +269,15 @@
   </si>
   <si>
     <t>Outcome</t>
+  </si>
+  <si>
+    <t>Accuracy Score : 0.69</t>
+  </si>
+  <si>
+    <t>Top Five</t>
+  </si>
+  <si>
+    <t>Family Functioning</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -392,9 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -423,6 +420,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21D34D5-1A7B-4765-BEDF-18BADC340302}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,22 +754,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -828,217 +833,211 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>0.72</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>0.47</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>0.67</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>0.86</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>0.75</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="E14" s="17">
+        <v>310</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17">
+        <v>10</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.67</v>
+      </c>
+      <c r="E15" s="17">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16">
         <v>0.69</v>
       </c>
-      <c r="E15" s="18">
+      <c r="C16" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="E16" s="17">
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0.66</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0.67</v>
-      </c>
-      <c r="E16" s="18">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="17">
-        <v>0.69</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0.69</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="E17" s="18">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
+    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="B22" s="21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="9">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="9">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="B24" s="21">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="B25" s="21">
+        <v>2.9381294059245101E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>29</v>
-      </c>
-      <c r="B28" s="7">
-        <v>2.9381294059245101E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>31</v>
       </c>
       <c r="B29" s="7">
         <v>2.6328995331523702E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="7">
         <v>2.62416686165752E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="7">
         <v>2.6014668651097299E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7">
         <v>2.52069776298596E-2</v>
@@ -1046,7 +1045,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="7">
         <v>2.4931581645804599E-2</v>
@@ -1054,7 +1053,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="7">
         <v>2.49155995347317E-2</v>
@@ -1062,7 +1061,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="7">
         <v>2.4605034104729799E-2</v>
@@ -1070,7 +1069,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="7">
         <v>2.4132898798080699E-2</v>
@@ -1078,7 +1077,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" s="7">
         <v>2.41135043122577E-2</v>
@@ -1086,7 +1085,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="7">
         <v>2.3581392603250002E-2</v>
@@ -1094,7 +1093,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7">
         <v>2.35600907228781E-2</v>
@@ -1102,7 +1101,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7">
         <v>2.2733270666944298E-2</v>
@@ -1110,7 +1109,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="7">
         <v>2.2584903373536299E-2</v>
@@ -1118,7 +1117,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="7">
         <v>2.2172847678090201E-2</v>
@@ -1126,7 +1125,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="7">
         <v>2.16286817838033E-2</v>
@@ -1134,7 +1133,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="7">
         <v>2.1220372068789399E-2</v>
@@ -1142,7 +1141,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="7">
         <v>1.967064630119E-2</v>
@@ -1150,7 +1149,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7">
         <v>1.80190512583186E-2</v>
@@ -1158,7 +1157,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="7">
         <v>1.4704037763972101E-2</v>
@@ -1170,7 +1169,7 @@
     </row>
     <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>18</v>
@@ -1178,7 +1177,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="7">
         <v>1.44038855876966E-2</v>
@@ -1186,7 +1185,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="7">
         <v>1.31203528463183E-2</v>
@@ -1194,7 +1193,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" s="7">
         <v>1.2967356127729399E-2</v>
@@ -1202,7 +1201,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B53" s="7">
         <v>1.17307395024855E-2</v>
@@ -1210,7 +1209,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B54" s="7">
         <v>1.04292116966384E-2</v>
@@ -1226,7 +1225,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B56" s="7">
         <v>9.4141685307284392E-3</v>
@@ -1234,7 +1233,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B57" s="7">
         <v>9.1553525190548497E-3</v>
@@ -1242,7 +1241,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B58" s="7">
         <v>8.7236363887983701E-3</v>
@@ -1250,7 +1249,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B59" s="7">
         <v>8.3212134793934096E-3</v>
@@ -1258,22 +1257,22 @@
     </row>
     <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B60" s="7">
         <v>8.1311591025672401E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
-        <v>71</v>
+      <c r="A61" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="B61" s="7">
         <v>8.1007619167072602E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B62" s="7">
@@ -1281,127 +1280,127 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="13" t="s">
-        <v>70</v>
+      <c r="A63" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="7">
         <v>6.9709055677920099E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="13" t="s">
-        <v>59</v>
+      <c r="A64" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B64" s="7">
         <v>6.4058788364157997E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
-        <v>50</v>
+      <c r="A65" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B65" s="7">
         <v>6.1869465085601302E-3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="14" t="s">
-        <v>51</v>
+      <c r="A66" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="B66" s="7">
         <v>5.8213583800035698E-3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="14" t="s">
-        <v>52</v>
+      <c r="A67" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="B67" s="7">
         <v>5.7693692788319904E-3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="14" t="s">
-        <v>53</v>
+      <c r="A68" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="B68" s="7">
         <v>4.8079097760305098E-3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="14" t="s">
-        <v>54</v>
+      <c r="A69" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="B69" s="7">
         <v>4.6000849672973698E-3</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="13" t="s">
-        <v>60</v>
+      <c r="A70" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B70" s="7">
         <v>4.3114958442694896E-3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
-        <v>80</v>
+      <c r="A71" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="B71" s="7">
         <v>4.1592525600928501E-3</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="13" t="s">
-        <v>61</v>
+      <c r="A72" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="B72" s="7">
         <v>3.9625525274641499E-3</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="13" t="s">
-        <v>62</v>
+      <c r="A73" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B73" s="7">
         <v>3.9227943856913498E-3</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="13" t="s">
-        <v>63</v>
+      <c r="A74" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B74" s="7">
         <v>3.8032748046017799E-3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="14" t="s">
-        <v>55</v>
+      <c r="A75" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B75" s="7">
         <v>3.41899092846686E-3</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="13" t="s">
-        <v>64</v>
+      <c r="A76" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B76" s="7">
         <v>3.39656892411268E-3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="14" t="s">
-        <v>65</v>
+      <c r="A77" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B77" s="7">
         <v>2.81528416708581E-3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B78" s="7">
@@ -1410,9 +1409,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1715,16 +1714,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC7EADE-C10B-47E7-8CF9-C6F7975E8804}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
-    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
